--- a/Data/EC/NIT-9013269801.xlsx
+++ b/Data/EC/NIT-9013269801.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F2B6E7BC-E8AC-4B01-AF0B-10A600A07379}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AAE59DBF-D936-435D-A644-D0BBF04ADA30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{EBB7BC8F-D096-4B18-ADD0-E9CDEC72FFD6}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{259A5BD0-4852-4AEF-AD48-18BA39251B48}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="93">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -71,214 +71,217 @@
     <t>YULIS PAOLA HERRERA PADILLA</t>
   </si>
   <si>
+    <t>2507</t>
+  </si>
+  <si>
+    <t>2506</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>2407</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
+    <t>2404</t>
+  </si>
+  <si>
+    <t>2403</t>
+  </si>
+  <si>
+    <t>2402</t>
+  </si>
+  <si>
+    <t>2401</t>
+  </si>
+  <si>
+    <t>2312</t>
+  </si>
+  <si>
+    <t>2311</t>
+  </si>
+  <si>
+    <t>2310</t>
+  </si>
+  <si>
+    <t>2309</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>2307</t>
+  </si>
+  <si>
+    <t>2306</t>
+  </si>
+  <si>
+    <t>2305</t>
+  </si>
+  <si>
+    <t>2304</t>
+  </si>
+  <si>
+    <t>2303</t>
+  </si>
+  <si>
+    <t>2302</t>
+  </si>
+  <si>
+    <t>2301</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>2202</t>
+  </si>
+  <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>2112</t>
+  </si>
+  <si>
+    <t>2111</t>
+  </si>
+  <si>
+    <t>2110</t>
+  </si>
+  <si>
+    <t>2109</t>
+  </si>
+  <si>
+    <t>2108</t>
+  </si>
+  <si>
+    <t>2107</t>
+  </si>
+  <si>
+    <t>2106</t>
+  </si>
+  <si>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
     <t>1911</t>
   </si>
   <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>2105</t>
-  </si>
-  <si>
-    <t>2106</t>
-  </si>
-  <si>
-    <t>2107</t>
-  </si>
-  <si>
-    <t>2108</t>
-  </si>
-  <si>
-    <t>2109</t>
-  </si>
-  <si>
-    <t>2110</t>
-  </si>
-  <si>
-    <t>2111</t>
-  </si>
-  <si>
-    <t>2112</t>
-  </si>
-  <si>
-    <t>2201</t>
-  </si>
-  <si>
-    <t>2202</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>2301</t>
-  </si>
-  <si>
-    <t>2302</t>
-  </si>
-  <si>
-    <t>2303</t>
-  </si>
-  <si>
-    <t>2304</t>
-  </si>
-  <si>
-    <t>2305</t>
-  </si>
-  <si>
-    <t>2306</t>
-  </si>
-  <si>
-    <t>2307</t>
-  </si>
-  <si>
-    <t>2308</t>
-  </si>
-  <si>
-    <t>2309</t>
-  </si>
-  <si>
-    <t>2310</t>
-  </si>
-  <si>
-    <t>2311</t>
-  </si>
-  <si>
-    <t>2312</t>
-  </si>
-  <si>
-    <t>2401</t>
-  </si>
-  <si>
-    <t>2402</t>
-  </si>
-  <si>
-    <t>2403</t>
-  </si>
-  <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>2405</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>2407</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
     <t>1143470593</t>
   </si>
   <si>
     <t>JUAN PABLO ROSA QUINTERO</t>
-  </si>
-  <si>
-    <t>2506</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -322,7 +325,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -692,7 +695,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E59475E3-15F5-D53B-9509-87B0272B5EB2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D04450C4-6D1F-400A-9017-79FD06CBBCF6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1043,32 +1046,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F317AC62-A466-4AC4-BA77-D5A100280AB7}">
-  <dimension ref="B2:J90"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41558D91-7C47-4E37-ABE7-E480C7CFCFC1}">
+  <dimension ref="B2:J91"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
-    <col min="2" max="2" width="16.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="29.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1077,7 +1080,7 @@
       <c r="I2" s="29"/>
       <c r="J2" s="29"/>
     </row>
-    <row r="3" spans="2:10">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" s="3"/>
       <c r="C3" s="28"/>
       <c r="D3" s="30"/>
@@ -1088,7 +1091,7 @@
       <c r="I3" s="30"/>
       <c r="J3" s="30"/>
     </row>
-    <row r="4" spans="2:10">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4" s="3"/>
       <c r="C4" s="28"/>
       <c r="D4" s="30"/>
@@ -1099,7 +1102,7 @@
       <c r="I4" s="30"/>
       <c r="J4" s="30"/>
     </row>
-    <row r="5" spans="2:10">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
       <c r="C5" s="28"/>
       <c r="D5" s="31"/>
@@ -1110,10 +1113,10 @@
       <c r="I5" s="31"/>
       <c r="J5" s="31"/>
     </row>
-    <row r="6" spans="2:10" ht="9" customHeight="1"/>
-    <row r="7" spans="2:10">
+    <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1126,8 +1129,8 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="2:10" ht="7.5" customHeight="1"/>
-    <row r="9" spans="2:10">
+    <row r="8" spans="2:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
@@ -1142,15 +1145,15 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="2:10" ht="6.75" customHeight="1"/>
-    <row r="11" spans="2:10">
+    <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>2286664</v>
+        <v>2319789</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1158,27 +1161,27 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="2:10" ht="4.5" customHeight="1"/>
-    <row r="13" spans="2:10">
+    <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C13" s="5">
         <v>2</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F13" s="5">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="15" spans="2:10">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B15" s="10" t="s">
         <v>0</v>
       </c>
@@ -1198,16 +1201,16 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="I15" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="I15" s="13" t="s">
-        <v>86</v>
-      </c>
       <c r="J15" s="14" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B16" s="15" t="s">
         <v>8</v>
       </c>
@@ -1230,7 +1233,7 @@
       <c r="I16" s="19"/>
       <c r="J16" s="20"/>
     </row>
-    <row r="17" spans="2:10">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17" s="15" t="s">
         <v>8</v>
       </c>
@@ -1253,7 +1256,7 @@
       <c r="I17" s="19"/>
       <c r="J17" s="20"/>
     </row>
-    <row r="18" spans="2:10">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B18" s="15" t="s">
         <v>8</v>
       </c>
@@ -1276,7 +1279,7 @@
       <c r="I18" s="19"/>
       <c r="J18" s="20"/>
     </row>
-    <row r="19" spans="2:10">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" s="15" t="s">
         <v>8</v>
       </c>
@@ -1299,7 +1302,7 @@
       <c r="I19" s="19"/>
       <c r="J19" s="20"/>
     </row>
-    <row r="20" spans="2:10">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B20" s="15" t="s">
         <v>8</v>
       </c>
@@ -1322,7 +1325,7 @@
       <c r="I20" s="19"/>
       <c r="J20" s="20"/>
     </row>
-    <row r="21" spans="2:10">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B21" s="15" t="s">
         <v>8</v>
       </c>
@@ -1345,7 +1348,7 @@
       <c r="I21" s="19"/>
       <c r="J21" s="20"/>
     </row>
-    <row r="22" spans="2:10">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B22" s="15" t="s">
         <v>8</v>
       </c>
@@ -1368,7 +1371,7 @@
       <c r="I22" s="19"/>
       <c r="J22" s="20"/>
     </row>
-    <row r="23" spans="2:10">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B23" s="15" t="s">
         <v>8</v>
       </c>
@@ -1391,7 +1394,7 @@
       <c r="I23" s="19"/>
       <c r="J23" s="20"/>
     </row>
-    <row r="24" spans="2:10">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B24" s="15" t="s">
         <v>8</v>
       </c>
@@ -1414,7 +1417,7 @@
       <c r="I24" s="19"/>
       <c r="J24" s="20"/>
     </row>
-    <row r="25" spans="2:10">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B25" s="15" t="s">
         <v>8</v>
       </c>
@@ -1437,7 +1440,7 @@
       <c r="I25" s="19"/>
       <c r="J25" s="20"/>
     </row>
-    <row r="26" spans="2:10">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B26" s="15" t="s">
         <v>8</v>
       </c>
@@ -1460,7 +1463,7 @@
       <c r="I26" s="19"/>
       <c r="J26" s="20"/>
     </row>
-    <row r="27" spans="2:10">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B27" s="15" t="s">
         <v>8</v>
       </c>
@@ -1483,7 +1486,7 @@
       <c r="I27" s="19"/>
       <c r="J27" s="20"/>
     </row>
-    <row r="28" spans="2:10">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B28" s="15" t="s">
         <v>8</v>
       </c>
@@ -1506,7 +1509,7 @@
       <c r="I28" s="19"/>
       <c r="J28" s="20"/>
     </row>
-    <row r="29" spans="2:10">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B29" s="15" t="s">
         <v>8</v>
       </c>
@@ -1529,7 +1532,7 @@
       <c r="I29" s="19"/>
       <c r="J29" s="20"/>
     </row>
-    <row r="30" spans="2:10">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B30" s="15" t="s">
         <v>8</v>
       </c>
@@ -1552,7 +1555,7 @@
       <c r="I30" s="19"/>
       <c r="J30" s="20"/>
     </row>
-    <row r="31" spans="2:10">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B31" s="15" t="s">
         <v>8</v>
       </c>
@@ -1575,7 +1578,7 @@
       <c r="I31" s="19"/>
       <c r="J31" s="20"/>
     </row>
-    <row r="32" spans="2:10">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B32" s="15" t="s">
         <v>8</v>
       </c>
@@ -1598,7 +1601,7 @@
       <c r="I32" s="19"/>
       <c r="J32" s="20"/>
     </row>
-    <row r="33" spans="2:10">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B33" s="15" t="s">
         <v>8</v>
       </c>
@@ -1621,7 +1624,7 @@
       <c r="I33" s="19"/>
       <c r="J33" s="20"/>
     </row>
-    <row r="34" spans="2:10">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B34" s="15" t="s">
         <v>8</v>
       </c>
@@ -1644,7 +1647,7 @@
       <c r="I34" s="19"/>
       <c r="J34" s="20"/>
     </row>
-    <row r="35" spans="2:10">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B35" s="15" t="s">
         <v>8</v>
       </c>
@@ -1667,7 +1670,7 @@
       <c r="I35" s="19"/>
       <c r="J35" s="20"/>
     </row>
-    <row r="36" spans="2:10">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B36" s="15" t="s">
         <v>8</v>
       </c>
@@ -1690,7 +1693,7 @@
       <c r="I36" s="19"/>
       <c r="J36" s="20"/>
     </row>
-    <row r="37" spans="2:10">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B37" s="15" t="s">
         <v>8</v>
       </c>
@@ -1713,7 +1716,7 @@
       <c r="I37" s="19"/>
       <c r="J37" s="20"/>
     </row>
-    <row r="38" spans="2:10">
+    <row r="38" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B38" s="15" t="s">
         <v>8</v>
       </c>
@@ -1736,7 +1739,7 @@
       <c r="I38" s="19"/>
       <c r="J38" s="20"/>
     </row>
-    <row r="39" spans="2:10">
+    <row r="39" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B39" s="15" t="s">
         <v>8</v>
       </c>
@@ -1759,7 +1762,7 @@
       <c r="I39" s="19"/>
       <c r="J39" s="20"/>
     </row>
-    <row r="40" spans="2:10">
+    <row r="40" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B40" s="15" t="s">
         <v>8</v>
       </c>
@@ -1782,7 +1785,7 @@
       <c r="I40" s="19"/>
       <c r="J40" s="20"/>
     </row>
-    <row r="41" spans="2:10">
+    <row r="41" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B41" s="15" t="s">
         <v>8</v>
       </c>
@@ -1805,7 +1808,7 @@
       <c r="I41" s="19"/>
       <c r="J41" s="20"/>
     </row>
-    <row r="42" spans="2:10">
+    <row r="42" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B42" s="15" t="s">
         <v>8</v>
       </c>
@@ -1828,7 +1831,7 @@
       <c r="I42" s="19"/>
       <c r="J42" s="20"/>
     </row>
-    <row r="43" spans="2:10">
+    <row r="43" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B43" s="15" t="s">
         <v>8</v>
       </c>
@@ -1851,7 +1854,7 @@
       <c r="I43" s="19"/>
       <c r="J43" s="20"/>
     </row>
-    <row r="44" spans="2:10">
+    <row r="44" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B44" s="15" t="s">
         <v>8</v>
       </c>
@@ -1874,7 +1877,7 @@
       <c r="I44" s="19"/>
       <c r="J44" s="20"/>
     </row>
-    <row r="45" spans="2:10">
+    <row r="45" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B45" s="15" t="s">
         <v>8</v>
       </c>
@@ -1897,7 +1900,7 @@
       <c r="I45" s="19"/>
       <c r="J45" s="20"/>
     </row>
-    <row r="46" spans="2:10">
+    <row r="46" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B46" s="15" t="s">
         <v>8</v>
       </c>
@@ -1920,7 +1923,7 @@
       <c r="I46" s="19"/>
       <c r="J46" s="20"/>
     </row>
-    <row r="47" spans="2:10">
+    <row r="47" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B47" s="15" t="s">
         <v>8</v>
       </c>
@@ -1943,7 +1946,7 @@
       <c r="I47" s="19"/>
       <c r="J47" s="20"/>
     </row>
-    <row r="48" spans="2:10">
+    <row r="48" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B48" s="15" t="s">
         <v>8</v>
       </c>
@@ -1966,7 +1969,7 @@
       <c r="I48" s="19"/>
       <c r="J48" s="20"/>
     </row>
-    <row r="49" spans="2:10">
+    <row r="49" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B49" s="15" t="s">
         <v>8</v>
       </c>
@@ -1989,7 +1992,7 @@
       <c r="I49" s="19"/>
       <c r="J49" s="20"/>
     </row>
-    <row r="50" spans="2:10">
+    <row r="50" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B50" s="15" t="s">
         <v>8</v>
       </c>
@@ -2012,7 +2015,7 @@
       <c r="I50" s="19"/>
       <c r="J50" s="20"/>
     </row>
-    <row r="51" spans="2:10">
+    <row r="51" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B51" s="15" t="s">
         <v>8</v>
       </c>
@@ -2035,7 +2038,7 @@
       <c r="I51" s="19"/>
       <c r="J51" s="20"/>
     </row>
-    <row r="52" spans="2:10">
+    <row r="52" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B52" s="15" t="s">
         <v>8</v>
       </c>
@@ -2058,7 +2061,7 @@
       <c r="I52" s="19"/>
       <c r="J52" s="20"/>
     </row>
-    <row r="53" spans="2:10">
+    <row r="53" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B53" s="15" t="s">
         <v>8</v>
       </c>
@@ -2081,7 +2084,7 @@
       <c r="I53" s="19"/>
       <c r="J53" s="20"/>
     </row>
-    <row r="54" spans="2:10">
+    <row r="54" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B54" s="15" t="s">
         <v>8</v>
       </c>
@@ -2104,7 +2107,7 @@
       <c r="I54" s="19"/>
       <c r="J54" s="20"/>
     </row>
-    <row r="55" spans="2:10">
+    <row r="55" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B55" s="15" t="s">
         <v>8</v>
       </c>
@@ -2127,7 +2130,7 @@
       <c r="I55" s="19"/>
       <c r="J55" s="20"/>
     </row>
-    <row r="56" spans="2:10">
+    <row r="56" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B56" s="15" t="s">
         <v>8</v>
       </c>
@@ -2150,7 +2153,7 @@
       <c r="I56" s="19"/>
       <c r="J56" s="20"/>
     </row>
-    <row r="57" spans="2:10">
+    <row r="57" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B57" s="15" t="s">
         <v>8</v>
       </c>
@@ -2173,7 +2176,7 @@
       <c r="I57" s="19"/>
       <c r="J57" s="20"/>
     </row>
-    <row r="58" spans="2:10">
+    <row r="58" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B58" s="15" t="s">
         <v>8</v>
       </c>
@@ -2196,7 +2199,7 @@
       <c r="I58" s="19"/>
       <c r="J58" s="20"/>
     </row>
-    <row r="59" spans="2:10">
+    <row r="59" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B59" s="15" t="s">
         <v>8</v>
       </c>
@@ -2219,7 +2222,7 @@
       <c r="I59" s="19"/>
       <c r="J59" s="20"/>
     </row>
-    <row r="60" spans="2:10">
+    <row r="60" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B60" s="15" t="s">
         <v>8</v>
       </c>
@@ -2242,7 +2245,7 @@
       <c r="I60" s="19"/>
       <c r="J60" s="20"/>
     </row>
-    <row r="61" spans="2:10">
+    <row r="61" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B61" s="15" t="s">
         <v>8</v>
       </c>
@@ -2265,7 +2268,7 @@
       <c r="I61" s="19"/>
       <c r="J61" s="20"/>
     </row>
-    <row r="62" spans="2:10">
+    <row r="62" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B62" s="15" t="s">
         <v>8</v>
       </c>
@@ -2288,7 +2291,7 @@
       <c r="I62" s="19"/>
       <c r="J62" s="20"/>
     </row>
-    <row r="63" spans="2:10">
+    <row r="63" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B63" s="15" t="s">
         <v>8</v>
       </c>
@@ -2311,7 +2314,7 @@
       <c r="I63" s="19"/>
       <c r="J63" s="20"/>
     </row>
-    <row r="64" spans="2:10">
+    <row r="64" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B64" s="15" t="s">
         <v>8</v>
       </c>
@@ -2334,7 +2337,7 @@
       <c r="I64" s="19"/>
       <c r="J64" s="20"/>
     </row>
-    <row r="65" spans="2:10">
+    <row r="65" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B65" s="15" t="s">
         <v>8</v>
       </c>
@@ -2357,7 +2360,7 @@
       <c r="I65" s="19"/>
       <c r="J65" s="20"/>
     </row>
-    <row r="66" spans="2:10">
+    <row r="66" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B66" s="15" t="s">
         <v>8</v>
       </c>
@@ -2380,7 +2383,7 @@
       <c r="I66" s="19"/>
       <c r="J66" s="20"/>
     </row>
-    <row r="67" spans="2:10">
+    <row r="67" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B67" s="15" t="s">
         <v>8</v>
       </c>
@@ -2403,7 +2406,7 @@
       <c r="I67" s="19"/>
       <c r="J67" s="20"/>
     </row>
-    <row r="68" spans="2:10">
+    <row r="68" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B68" s="15" t="s">
         <v>8</v>
       </c>
@@ -2426,7 +2429,7 @@
       <c r="I68" s="19"/>
       <c r="J68" s="20"/>
     </row>
-    <row r="69" spans="2:10">
+    <row r="69" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B69" s="15" t="s">
         <v>8</v>
       </c>
@@ -2449,7 +2452,7 @@
       <c r="I69" s="19"/>
       <c r="J69" s="20"/>
     </row>
-    <row r="70" spans="2:10">
+    <row r="70" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B70" s="15" t="s">
         <v>8</v>
       </c>
@@ -2472,7 +2475,7 @@
       <c r="I70" s="19"/>
       <c r="J70" s="20"/>
     </row>
-    <row r="71" spans="2:10">
+    <row r="71" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B71" s="15" t="s">
         <v>8</v>
       </c>
@@ -2495,7 +2498,7 @@
       <c r="I71" s="19"/>
       <c r="J71" s="20"/>
     </row>
-    <row r="72" spans="2:10">
+    <row r="72" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B72" s="15" t="s">
         <v>8</v>
       </c>
@@ -2518,7 +2521,7 @@
       <c r="I72" s="19"/>
       <c r="J72" s="20"/>
     </row>
-    <row r="73" spans="2:10">
+    <row r="73" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B73" s="15" t="s">
         <v>8</v>
       </c>
@@ -2541,7 +2544,7 @@
       <c r="I73" s="19"/>
       <c r="J73" s="20"/>
     </row>
-    <row r="74" spans="2:10">
+    <row r="74" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B74" s="15" t="s">
         <v>8</v>
       </c>
@@ -2564,7 +2567,7 @@
       <c r="I74" s="19"/>
       <c r="J74" s="20"/>
     </row>
-    <row r="75" spans="2:10">
+    <row r="75" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B75" s="15" t="s">
         <v>8</v>
       </c>
@@ -2587,7 +2590,7 @@
       <c r="I75" s="19"/>
       <c r="J75" s="20"/>
     </row>
-    <row r="76" spans="2:10">
+    <row r="76" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B76" s="15" t="s">
         <v>8</v>
       </c>
@@ -2610,7 +2613,7 @@
       <c r="I76" s="19"/>
       <c r="J76" s="20"/>
     </row>
-    <row r="77" spans="2:10">
+    <row r="77" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B77" s="15" t="s">
         <v>8</v>
       </c>
@@ -2633,7 +2636,7 @@
       <c r="I77" s="19"/>
       <c r="J77" s="20"/>
     </row>
-    <row r="78" spans="2:10">
+    <row r="78" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B78" s="15" t="s">
         <v>8</v>
       </c>
@@ -2656,7 +2659,7 @@
       <c r="I78" s="19"/>
       <c r="J78" s="20"/>
     </row>
-    <row r="79" spans="2:10">
+    <row r="79" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B79" s="15" t="s">
         <v>8</v>
       </c>
@@ -2679,7 +2682,7 @@
       <c r="I79" s="19"/>
       <c r="J79" s="20"/>
     </row>
-    <row r="80" spans="2:10">
+    <row r="80" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B80" s="15" t="s">
         <v>8</v>
       </c>
@@ -2702,7 +2705,7 @@
       <c r="I80" s="19"/>
       <c r="J80" s="20"/>
     </row>
-    <row r="81" spans="2:10">
+    <row r="81" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B81" s="15" t="s">
         <v>8</v>
       </c>
@@ -2725,7 +2728,7 @@
       <c r="I81" s="19"/>
       <c r="J81" s="20"/>
     </row>
-    <row r="82" spans="2:10">
+    <row r="82" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B82" s="15" t="s">
         <v>8</v>
       </c>
@@ -2748,66 +2751,78 @@
       <c r="I82" s="19"/>
       <c r="J82" s="20"/>
     </row>
-    <row r="83" spans="2:10">
+    <row r="83" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B83" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C83" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D83" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E83" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="D83" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="E83" s="16" t="s">
-        <v>80</v>
-      </c>
       <c r="F83" s="18">
-        <v>34164</v>
+        <v>33125</v>
       </c>
       <c r="G83" s="18">
-        <v>1423500</v>
+        <v>828116</v>
       </c>
       <c r="H83" s="19"/>
       <c r="I83" s="19"/>
       <c r="J83" s="20"/>
     </row>
-    <row r="84" spans="2:10">
-      <c r="B84" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C84" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="D84" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="E84" s="22" t="s">
+    <row r="84" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B84" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C84" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D84" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E84" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="F84" s="18">
+        <v>33125</v>
+      </c>
+      <c r="G84" s="18">
+        <v>828116</v>
+      </c>
+      <c r="H84" s="19"/>
+      <c r="I84" s="19"/>
+      <c r="J84" s="20"/>
+    </row>
+    <row r="85" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B85" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C85" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="F84" s="24">
-        <v>33125</v>
-      </c>
-      <c r="G84" s="24">
-        <v>828116</v>
-      </c>
-      <c r="H84" s="25"/>
-      <c r="I84" s="25"/>
-      <c r="J84" s="26"/>
-    </row>
-    <row r="89" spans="2:10">
-      <c r="B89" s="32" t="s">
-        <v>90</v>
-      </c>
-      <c r="C89" s="32"/>
-      <c r="H89" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="I89" s="1"/>
-      <c r="J89" s="1"/>
-    </row>
-    <row r="90" spans="2:10">
+      <c r="D85" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="E85" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F85" s="24">
+        <v>34164</v>
+      </c>
+      <c r="G85" s="24">
+        <v>1423500</v>
+      </c>
+      <c r="H85" s="25"/>
+      <c r="I85" s="25"/>
+      <c r="J85" s="26"/>
+    </row>
+    <row r="90" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B90" s="32" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C90" s="32"/>
       <c r="H90" s="1" t="s">
@@ -2816,12 +2831,23 @@
       <c r="I90" s="1"/>
       <c r="J90" s="1"/>
     </row>
+    <row r="91" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B91" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="C91" s="32"/>
+      <c r="H91" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I91" s="1"/>
+      <c r="J91" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B91:C91"/>
     <mergeCell ref="B90:C90"/>
-    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="H91:J91"/>
     <mergeCell ref="H90:J90"/>
-    <mergeCell ref="H89:J89"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>

--- a/Data/EC/NIT-9013269801.xlsx
+++ b/Data/EC/NIT-9013269801.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AAE59DBF-D936-435D-A644-D0BBF04ADA30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B06666DF-92E1-4F0A-8DD4-576920983A6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{259A5BD0-4852-4AEF-AD48-18BA39251B48}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{967A0C92-10AF-40EF-8D83-66EE383C8E20}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="94">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -71,217 +71,220 @@
     <t>YULIS PAOLA HERRERA PADILLA</t>
   </si>
   <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>2106</t>
+  </si>
+  <si>
+    <t>2107</t>
+  </si>
+  <si>
+    <t>2108</t>
+  </si>
+  <si>
+    <t>2109</t>
+  </si>
+  <si>
+    <t>2110</t>
+  </si>
+  <si>
+    <t>2111</t>
+  </si>
+  <si>
+    <t>2112</t>
+  </si>
+  <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>2202</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>2301</t>
+  </si>
+  <si>
+    <t>2302</t>
+  </si>
+  <si>
+    <t>2303</t>
+  </si>
+  <si>
+    <t>2304</t>
+  </si>
+  <si>
+    <t>2305</t>
+  </si>
+  <si>
+    <t>2306</t>
+  </si>
+  <si>
+    <t>2307</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>2309</t>
+  </si>
+  <si>
+    <t>2310</t>
+  </si>
+  <si>
+    <t>2311</t>
+  </si>
+  <si>
+    <t>2312</t>
+  </si>
+  <si>
+    <t>2401</t>
+  </si>
+  <si>
+    <t>2402</t>
+  </si>
+  <si>
+    <t>2403</t>
+  </si>
+  <si>
+    <t>2404</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
+    <t>2407</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>2506</t>
+  </si>
+  <si>
+    <t>1143470593</t>
+  </si>
+  <si>
+    <t>JUAN PABLO ROSA QUINTERO</t>
+  </si>
+  <si>
     <t>2507</t>
   </si>
   <si>
-    <t>2506</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>2407</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>2405</t>
-  </si>
-  <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>2403</t>
-  </si>
-  <si>
-    <t>2402</t>
-  </si>
-  <si>
-    <t>2401</t>
-  </si>
-  <si>
-    <t>2312</t>
-  </si>
-  <si>
-    <t>2311</t>
-  </si>
-  <si>
-    <t>2310</t>
-  </si>
-  <si>
-    <t>2309</t>
-  </si>
-  <si>
-    <t>2308</t>
-  </si>
-  <si>
-    <t>2307</t>
-  </si>
-  <si>
-    <t>2306</t>
-  </si>
-  <si>
-    <t>2305</t>
-  </si>
-  <si>
-    <t>2304</t>
-  </si>
-  <si>
-    <t>2303</t>
-  </si>
-  <si>
-    <t>2302</t>
-  </si>
-  <si>
-    <t>2301</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>2202</t>
-  </si>
-  <si>
-    <t>2201</t>
-  </si>
-  <si>
-    <t>2112</t>
-  </si>
-  <si>
-    <t>2111</t>
-  </si>
-  <si>
-    <t>2110</t>
-  </si>
-  <si>
-    <t>2109</t>
-  </si>
-  <si>
-    <t>2108</t>
-  </si>
-  <si>
-    <t>2107</t>
-  </si>
-  <si>
-    <t>2106</t>
-  </si>
-  <si>
-    <t>2105</t>
-  </si>
-  <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1143470593</t>
-  </si>
-  <si>
-    <t>JUAN PABLO ROSA QUINTERO</t>
+    <t>2508</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -380,7 +383,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -393,9 +398,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -595,23 +598,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -639,10 +642,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -695,7 +698,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D04450C4-6D1F-400A-9017-79FD06CBBCF6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A98DD9E2-23EE-B440-667D-BDD7CA0383A9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1046,8 +1049,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41558D91-7C47-4E37-ABE7-E480C7CFCFC1}">
-  <dimension ref="B2:J91"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA9003E4-7C24-4A13-98EA-7A7CE5585F00}">
+  <dimension ref="B2:J92"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -1071,7 +1074,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1116,7 +1119,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1148,12 +1151,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>2319789</v>
+        <v>2352914</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1164,17 +1167,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C13" s="5">
         <v>2</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F13" s="5">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1201,13 +1204,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="I15" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="I15" s="13" t="s">
-        <v>87</v>
-      </c>
       <c r="J15" s="14" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -2779,61 +2782,73 @@
         <v>8</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>9</v>
+        <v>79</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F84" s="18">
-        <v>33125</v>
+        <v>34164</v>
       </c>
       <c r="G84" s="18">
-        <v>828116</v>
+        <v>1423500</v>
       </c>
       <c r="H84" s="19"/>
       <c r="I84" s="19"/>
       <c r="J84" s="20"/>
     </row>
     <row r="85" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B85" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C85" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="D85" s="23" t="s">
+      <c r="B85" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C85" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D85" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E85" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="E85" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="F85" s="24">
-        <v>34164</v>
-      </c>
-      <c r="G85" s="24">
-        <v>1423500</v>
-      </c>
-      <c r="H85" s="25"/>
-      <c r="I85" s="25"/>
-      <c r="J85" s="26"/>
-    </row>
-    <row r="90" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B90" s="32" t="s">
-        <v>91</v>
-      </c>
-      <c r="C90" s="32"/>
-      <c r="H90" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="I90" s="1"/>
-      <c r="J90" s="1"/>
+      <c r="F85" s="18">
+        <v>33125</v>
+      </c>
+      <c r="G85" s="18">
+        <v>828116</v>
+      </c>
+      <c r="H85" s="19"/>
+      <c r="I85" s="19"/>
+      <c r="J85" s="20"/>
+    </row>
+    <row r="86" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B86" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C86" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D86" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E86" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="F86" s="24">
+        <v>33125</v>
+      </c>
+      <c r="G86" s="24">
+        <v>828116</v>
+      </c>
+      <c r="H86" s="25"/>
+      <c r="I86" s="25"/>
+      <c r="J86" s="26"/>
     </row>
     <row r="91" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B91" s="32" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C91" s="32"/>
       <c r="H91" s="1" t="s">
@@ -2842,12 +2857,23 @@
       <c r="I91" s="1"/>
       <c r="J91" s="1"/>
     </row>
+    <row r="92" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B92" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="C92" s="32"/>
+      <c r="H92" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="I92" s="1"/>
+      <c r="J92" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B92:C92"/>
     <mergeCell ref="B91:C91"/>
-    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="H92:J92"/>
     <mergeCell ref="H91:J91"/>
-    <mergeCell ref="H90:J90"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
